--- a/hardware/rev_c/buckler_bom.xlsx
+++ b/hardware/rev_c/buckler_bom.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="buckler_bom" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="buckler" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="226">
   <si>
     <t xml:space="preserve">Qty</t>
   </si>
@@ -85,7 +85,7 @@
     <t xml:space="preserve">HW4-2.0</t>
   </si>
   <si>
-    <t xml:space="preserve">J3, J4, J5, J6</t>
+    <t xml:space="preserve">J12, J13, J14, J15</t>
   </si>
   <si>
     <t xml:space="preserve">Grove - Universal 4 pin connector</t>
@@ -106,17 +106,13 @@
     <t xml:space="preserve">1X02</t>
   </si>
   <si>
-    <t xml:space="preserve">JP1</t>
+    <t xml:space="preserve">J6</t>
   </si>
   <si>
     <t xml:space="preserve">Header 2</t>
   </si>
   <si>
-    <t xml:space="preserve">S1011EC-02-ND
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRPC002SAAN-RC</t>
+    <t xml:space="preserve">S1011EC-02-ND </t>
   </si>
   <si>
     <t xml:space="preserve">M04PTH</t>
@@ -125,17 +121,13 @@
     <t xml:space="preserve">1X04</t>
   </si>
   <si>
-    <t xml:space="preserve">JP2</t>
+    <t xml:space="preserve">J8</t>
   </si>
   <si>
     <t xml:space="preserve">Header 4</t>
   </si>
   <si>
-    <t xml:space="preserve">S1011EC-04-ND
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRPC004SAAN-RC</t>
+    <t xml:space="preserve">S1011EC-04-ND </t>
   </si>
   <si>
     <t xml:space="preserve">M05PTH</t>
@@ -144,17 +136,13 @@
     <t xml:space="preserve">1X05</t>
   </si>
   <si>
-    <t xml:space="preserve">JP6</t>
+    <t xml:space="preserve">J11</t>
   </si>
   <si>
     <t xml:space="preserve">Header 5</t>
   </si>
   <si>
-    <t xml:space="preserve">S1011EC-05-ND
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRPC005SAAN-RC</t>
+    <t xml:space="preserve">S1011EC-05-ND </t>
   </si>
   <si>
     <t xml:space="preserve">M06SIP</t>
@@ -163,17 +151,13 @@
     <t xml:space="preserve">1X06</t>
   </si>
   <si>
-    <t xml:space="preserve">JP3,JP10</t>
+    <t xml:space="preserve">J3, J9</t>
   </si>
   <si>
     <t xml:space="preserve">Header 6</t>
   </si>
   <si>
-    <t xml:space="preserve">S1011EC-06-ND
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRPC006SAAN-RC</t>
+    <t xml:space="preserve">S1011EC-06-ND </t>
   </si>
   <si>
     <t xml:space="preserve">M081X08</t>
@@ -182,17 +166,13 @@
     <t xml:space="preserve">1X08</t>
   </si>
   <si>
-    <t xml:space="preserve">JP4,JP8,JP9</t>
+    <t xml:space="preserve">J1, J4, J10</t>
   </si>
   <si>
     <t xml:space="preserve">Header 8</t>
   </si>
   <si>
-    <t xml:space="preserve">S1011EC-08-ND
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRPC008SAAN-RC</t>
+    <t xml:space="preserve">S1011EC-08-ND </t>
   </si>
   <si>
     <t xml:space="preserve">M09PTH</t>
@@ -201,36 +181,25 @@
     <t xml:space="preserve">1X09</t>
   </si>
   <si>
-    <t xml:space="preserve">JP11</t>
+    <t xml:space="preserve">J5</t>
   </si>
   <si>
     <t xml:space="preserve">Header 9</t>
   </si>
   <si>
-    <t xml:space="preserve">S1011EC-09-ND
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRPC009SAAN-RC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M10PTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M10";"M10";"1X10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JP5,JP7</t>
+    <t xml:space="preserve">S1011EC-09-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J2, J7</t>
   </si>
   <si>
     <t xml:space="preserve">Header 10</t>
   </si>
   <si>
-    <t xml:space="preserve">S1011EC-10-ND
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRPC010SAAN-RC</t>
+    <t xml:space="preserve">S1011EC-10-ND </t>
   </si>
   <si>
     <t xml:space="preserve">100k</t>
@@ -443,7 +412,7 @@
     <t xml:space="preserve">DB25_5747846</t>
   </si>
   <si>
-    <t xml:space="preserve">J1</t>
+    <t xml:space="preserve">J16</t>
   </si>
   <si>
     <t xml:space="preserve">CONN D-SUB RCPT 25POS R/A SOLDER</t>
@@ -461,7 +430,7 @@
     <t xml:space="preserve">DM3AT-SF-PEJM5</t>
   </si>
   <si>
-    <t xml:space="preserve">J2</t>
+    <t xml:space="preserve">J17</t>
   </si>
   <si>
     <t xml:space="preserve">CONN MICRO SD R/A PUSH-PUSH SMD</t>
@@ -566,10 +535,10 @@
     <t xml:space="preserve">NHD-0216KZW</t>
   </si>
   <si>
-    <t xml:space="preserve">A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NHD-0216KZW-AG5-ND,952-3305-ND,952-1862-ND</t>
+    <t xml:space="preserve">J18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NHD-0216KZW-AG5-ND, 952-3305-ND, 952-1862-ND</t>
   </si>
   <si>
     <t xml:space="preserve">PTS645SM43SMTR92</t>
@@ -807,8 +776,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -828,10 +797,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:AMJ35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="27:27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -839,11 +808,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="34.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="44.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="42.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="43.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="34.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="23.8"/>
@@ -947,7 +916,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>1</v>
       </c>
@@ -963,181 +932,168 @@
       <c r="F4" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="0" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="E5" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="H5" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="1" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="F6" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="H6" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="H7" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="0" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="D9" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="E9" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="F9" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="H9" s="0" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="0" t="s">
+    <row r="10" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="C10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="F10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="H10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>67</v>
-      </c>
+      <c r="AMF10" s="0"/>
+      <c r="AMG10" s="0"/>
+      <c r="AMH10" s="0"/>
+      <c r="AMI10" s="0"/>
+      <c r="AMJ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="0" t="s">
         <v>68</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1145,31 +1101,31 @@
         <v>8</v>
       </c>
       <c r="B12" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="0" t="s">
         <v>77</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1177,31 +1133,31 @@
         <v>9</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1209,31 +1165,31 @@
         <v>1</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1241,31 +1197,31 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1273,31 +1229,31 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1305,31 +1261,31 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1337,31 +1293,31 @@
         <v>1</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1369,31 +1325,31 @@
         <v>1</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1401,31 +1357,31 @@
         <v>1</v>
       </c>
       <c r="B20" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" s="0" t="s">
         <v>128</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="K20" s="0" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1433,28 +1389,28 @@
         <v>1</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1462,31 +1418,31 @@
         <v>1</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1494,31 +1450,31 @@
         <v>1</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1526,31 +1482,31 @@
         <v>1</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1558,31 +1514,31 @@
         <v>1</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1590,31 +1546,31 @@
         <v>1</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1622,19 +1578,19 @@
         <v>1</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1642,31 +1598,31 @@
         <v>2</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1674,31 +1630,31 @@
         <v>1</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1706,34 +1662,34 @@
         <v>1</v>
       </c>
       <c r="B30" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="K30" s="0" t="s">
         <v>193</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="F30" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="I30" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="J30" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="K30" s="0" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1741,31 +1697,31 @@
         <v>1</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1773,22 +1729,22 @@
         <v>4</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1796,28 +1752,28 @@
         <v>2</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1825,31 +1781,31 @@
         <v>1</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1857,31 +1813,31 @@
         <v>1</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/hardware/rev_c/buckler_bom.xlsx
+++ b/hardware/rev_c/buckler_bom.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="buckler" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="buckler_bom" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="208">
   <si>
     <t xml:space="preserve">Qty</t>
   </si>
@@ -55,9 +55,6 @@
     <t xml:space="preserve">MPN</t>
   </si>
   <si>
-    <t xml:space="preserve">VALUE</t>
-  </si>
-  <si>
     <t xml:space="preserve">DIODE_SCHOTTKYSOD323</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t xml:space="preserve">713-110990030</t>
   </si>
   <si>
-    <t xml:space="preserve">4P-2.0</t>
-  </si>
-  <si>
     <t xml:space="preserve">M02PTH</t>
   </si>
   <si>
@@ -151,7 +145,7 @@
     <t xml:space="preserve">1X06</t>
   </si>
   <si>
-    <t xml:space="preserve">J3, J9</t>
+    <t xml:space="preserve">J3, J10</t>
   </si>
   <si>
     <t xml:space="preserve">Header 6</t>
@@ -166,7 +160,7 @@
     <t xml:space="preserve">1X08</t>
   </si>
   <si>
-    <t xml:space="preserve">J1, J4, J10</t>
+    <t xml:space="preserve">J1, J4, J9</t>
   </si>
   <si>
     <t xml:space="preserve">Header 8</t>
@@ -211,7 +205,7 @@
     <t xml:space="preserve">0402_RES</t>
   </si>
   <si>
-    <t xml:space="preserve">R14, R15</t>
+    <t xml:space="preserve">R13, R14</t>
   </si>
   <si>
     <t xml:space="preserve">Resistor</t>
@@ -238,7 +232,7 @@
     <t xml:space="preserve">0402_CAP</t>
   </si>
   <si>
-    <t xml:space="preserve">C2, C3, C4, C5, C6, C7, C8, C9</t>
+    <t xml:space="preserve">C3, C4, C5, C6, C7, C8, C9, C10, C11, C12</t>
   </si>
   <si>
     <t xml:space="preserve">SMD Capacitor</t>
@@ -259,7 +253,7 @@
     <t xml:space="preserve">10k</t>
   </si>
   <si>
-    <t xml:space="preserve">R5, R6, R7, R8, R9, R10, R11, R12, R13</t>
+    <t xml:space="preserve">R5, R6, R7, R8, R9, R10, R11, R12</t>
   </si>
   <si>
     <t xml:space="preserve">RES SMD 10K OHM 1% 1/16W 0402</t>
@@ -277,7 +271,7 @@
     <t xml:space="preserve">10nF</t>
   </si>
   <si>
-    <t xml:space="preserve">C1</t>
+    <t xml:space="preserve">C1, C2</t>
   </si>
   <si>
     <t xml:space="preserve">CAP CER 10000PF 25V X7R 0402</t>
@@ -310,25 +304,10 @@
     <t xml:space="preserve">RMCF0402FT1K00</t>
   </si>
   <si>
-    <t xml:space="preserve">1uF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAP CER 1UF 10V X6S 0402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1276-6805-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL05X105KP5NNNC</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.7uF</t>
   </si>
   <si>
-    <t xml:space="preserve">C11</t>
+    <t xml:space="preserve">C13</t>
   </si>
   <si>
     <t xml:space="preserve">CAP CER 4.7UF 10V X5R 0402</t>
@@ -448,247 +427,214 @@
     <t xml:space="preserve">GREEN</t>
   </si>
   <si>
+    <t xml:space="preserve">D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED GREEN CLEAR CHIP SMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160-1435-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTST-C190KGKT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSM9DS1TR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LGA-24_3X3P5X1_STM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">497-14946-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS5637-02BA03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-SMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">low power pressure sensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SENSOR 17.4PSIA I2C 24B 4-QFN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">223-1199-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TE CONNECTIVITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS563702BA03-50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NHD-0216KZWSERIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NHD-0216KZW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NHD-0216KZW-AG5-ND, 952-3305-ND, 952-1862-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPT3004DNPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNP0006A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">296-53402-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texas Instruments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTS645SM43SMTR92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTS645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S2, S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tactile Switch SPST-NO Top Actuated Surface Mount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CKN9112CT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C&amp;K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTS645SM43SMTR92 LFS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED RED CLEAR CHIP SMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160-1436-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTST-C190KRKT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI7021-A20-GM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DFN-6/3MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC TEMP SENSOR RH 2% DFN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SENS HUMI/TEMP 3.6V I2C 3% 6DFN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">336-3141-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silicon Labs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">634-SI7021-A20-GM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI7021-A20-GM1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIP32510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSOT23-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load switch, slew rate controlled. By Vishay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC LOAD SWITCH SOT23-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SIP32510DT-T1-GE3CT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vishay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIP32510DT-T1-GE3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST_POINT_0.078IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESTPOINT_0.078IN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP40, TP41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERM TURRET SINGLE L=4.75MM TIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36-1520-2-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keystone Electronics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1520-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TE_SSA12/SPDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWITCH SLIDE SPDT 2POS SSA SER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWITCH SLIDE SPDT 100MA 30V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">450-1602-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TE Connectivity ALCOSWITCH Switches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSA12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YELLOW</t>
+  </si>
+  <si>
     <t xml:space="preserve">D5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED GREEN CLEAR CHIP SMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160-1435-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTST-C190KGKT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAX44009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UDFN-6-EXPOSED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">low power ambient light sensor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SENSOR AMBIENT LIGHT 6UTDFN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAX44009EDT+TCT-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maxim Integrated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAX44009EDT+T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MPU-9250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QFN-24/3MM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GYRO/ACCEL/COMPASS/9-AXIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMU ACCEL/GYRO/MAG I2C/SPI 24QFN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1428-1019-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TDK InvenSense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MS5637-02BA03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-SMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">low power pressure sensor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SENSOR 17.4PSIA I2C 24B 4-QFN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">223-1199-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TE CONNECTIVITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MS563702BA03-50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NHD-0216KZWSERIAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NHD-0216KZW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NHD-0216KZW-AG5-ND, 952-3305-ND, 952-1862-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTS645SM43SMTR92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTS645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S2, S3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tactile Switch SPST-NO Top Actuated Surface Mount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CKN9112CT-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C&amp;K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTS645SM43SMTR92 LFS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED RED CLEAR CHIP SMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">160-1436-1-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTST-C190KRKT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI7021-A20-GM1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DFN-6/3MM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC TEMP SENSOR RH 2% DFN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SENS HUMI/TEMP 3.6V I2C 3% 6DFN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">336-3141-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silicon Labs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">634-SI7021-A20-GM1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI7021-A20-GM1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIP32510</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSOT23-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Load switch, slew rate controlled. By Vishay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IC LOAD SWITCH SOT23-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> SIP32510DT-T1-GE3CT-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vishay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SIP32510DT-T1-GE3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEST_POINT_0.040IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TESTPOINT_0.040IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP35, TP36, TP37, TP38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.040in Test Point</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5001K-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEST_POINT_0.078IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TESTPOINT_0.078IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP40, TP41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TERM TURRET SINGLE L=4.75MM TIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36-1520-2-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keystone Electronics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1520-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TE_SSA12/SPDT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SWITCH SLIDE SPDT 2POS SSA SER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SWITCH SLIDE SPDT 100MA 30V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">450-1602-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TE Connectivity ALCOSWITCH Switches</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSA12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YELLOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D3</t>
   </si>
   <si>
     <t xml:space="preserve">LED YELLOW CLEAR CHIP SMD</t>
@@ -707,7 +653,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -727,6 +673,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -771,8 +723,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -797,10 +753,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ35"/>
+  <dimension ref="A1:AMJ33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="27:27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -808,16 +764,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="34.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="36.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="44.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="43.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="34.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="23.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="6.85"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -854,34 +809,31 @@
       <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="K2" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -889,51 +841,48 @@
         <v>4</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>21</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>320110033</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>24</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>110990030</v>
       </c>
-      <c r="L3" s="0" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="H4" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -941,19 +890,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="H5" s="0" t="s">
         <v>33</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -961,19 +910,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="F6" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="H6" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -981,19 +930,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="F7" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="H7" s="0" t="s">
         <v>43</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1001,19 +950,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="F8" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="H8" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1021,19 +970,19 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="F9" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="H9" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1041,23 +990,36 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="ALS10" s="0"/>
+      <c r="ALT10" s="0"/>
+      <c r="ALU10" s="0"/>
+      <c r="ALV10" s="0"/>
+      <c r="ALW10" s="0"/>
+      <c r="ALX10" s="0"/>
+      <c r="ALY10" s="0"/>
+      <c r="ALZ10" s="0"/>
+      <c r="AMA10" s="0"/>
+      <c r="AMB10" s="0"/>
+      <c r="AMC10" s="0"/>
+      <c r="AMD10" s="0"/>
+      <c r="AME10" s="0"/>
       <c r="AMF10" s="0"/>
       <c r="AMG10" s="0"/>
       <c r="AMH10" s="0"/>
@@ -1069,127 +1031,127 @@
         <v>2</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="E11" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="F11" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="H11" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="I11" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="K11" s="0" t="s">
         <v>66</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="E12" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="F12" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="G12" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="H12" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="I12" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="K12" s="0" t="s">
         <v>75</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="0" t="s">
+      <c r="H13" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="0" t="s">
+      <c r="I13" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="K13" s="0" t="s">
         <v>81</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="K13" s="0" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="0" t="s">
+      <c r="H14" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="0" t="s">
+      <c r="I14" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="K14" s="0" t="s">
         <v>87</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="K14" s="0" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1197,31 +1159,31 @@
         <v>4</v>
       </c>
       <c r="B15" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="0" t="s">
+      <c r="H15" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="0" t="s">
+      <c r="I15" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="K15" s="0" t="s">
         <v>93</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="K15" s="0" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1229,31 +1191,31 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="0" t="s">
+      <c r="H16" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="0" t="s">
+      <c r="I16" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="0" t="s">
         <v>98</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="K16" s="0" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1261,19 +1223,19 @@
         <v>1</v>
       </c>
       <c r="B17" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="0" t="s">
+      <c r="F17" s="0" t="s">
         <v>102</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>73</v>
       </c>
       <c r="G17" s="0" t="s">
         <v>103</v>
@@ -1282,10 +1244,10 @@
         <v>104</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1293,10 +1255,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>107</v>
@@ -1317,7 +1279,7 @@
         <v>112</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1325,31 +1287,31 @@
         <v>1</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>114</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1357,10 +1319,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>122</v>
@@ -1368,20 +1330,17 @@
       <c r="E20" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="G20" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="H20" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="I20" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="I20" s="0" t="s">
+      <c r="K20" s="0" t="s">
         <v>127</v>
-      </c>
-      <c r="K20" s="0" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1389,15 +1348,18 @@
         <v>1</v>
       </c>
       <c r="B21" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21" s="0" t="s">
+      <c r="F21" s="0" t="s">
         <v>130</v>
       </c>
       <c r="G21" s="0" t="s">
@@ -1410,7 +1372,7 @@
         <v>133</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1418,31 +1380,31 @@
         <v>1</v>
       </c>
       <c r="B22" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" s="0" t="s">
+      <c r="F22" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="H22" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="I22" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="K22" s="0" t="s">
         <v>138</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1450,31 +1412,22 @@
         <v>1</v>
       </c>
       <c r="B23" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="E23" s="0" t="s">
+      <c r="H23" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F23" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>127</v>
-      </c>
       <c r="K23" s="0" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1482,31 +1435,31 @@
         <v>1</v>
       </c>
       <c r="B24" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="F24" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="D24" s="0" t="s">
+      <c r="G24" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="H24" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="I24" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="K24" s="0" t="s">
         <v>150</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="K24" s="0" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1514,30 +1467,18 @@
         <v>1</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="K25" s="0" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1546,83 +1487,89 @@
         <v>1</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>171</v>
+        <v>162</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>110</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>172</v>
+        <v>164</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>178</v>
+        <v>120</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1630,31 +1577,34 @@
         <v>1</v>
       </c>
       <c r="B29" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="K29" s="0" t="s">
         <v>180</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="K29" s="0" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1662,182 +1612,124 @@
         <v>1</v>
       </c>
       <c r="B30" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="G30" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="C30" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="D30" s="0" t="s">
+      <c r="H30" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="I30" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="K30" s="0" t="s">
         <v>188</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>189</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="I30" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="J30" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="K30" s="0" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="I31" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="C31" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="D31" s="0" t="s">
+      <c r="K31" s="0" t="s">
         <v>195</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="I31" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="K31" s="0" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B32" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="K32" s="0" t="s">
         <v>202</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>202</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="H32" s="0" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="K33" s="0" t="s">
         <v>207</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="K33" s="0" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="I34" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="K34" s="0" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="K35" s="0" t="s">
-        <v>225</v>
       </c>
     </row>
   </sheetData>
